--- a/.DOCUMENTATION/medidas.xlsx
+++ b/.DOCUMENTATION/medidas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/AGENDATE/.DOCUMENTATION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF751A77-0E98-8B46-BD61-A2CD2CEC0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6FCA06-B398-3B49-B0D0-85AB227DC40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{B3701BE2-AC3B-E94B-9CE8-1B6A1C40C372}"/>
+    <workbookView xWindow="-27320" yWindow="4140" windowWidth="27320" windowHeight="13880" xr2:uid="{B3701BE2-AC3B-E94B-9CE8-1B6A1C40C372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>css</t>
   </si>
@@ -147,13 +148,58 @@
   </si>
   <si>
     <t>TIPO ROOT</t>
+  </si>
+  <si>
+    <t>BILIARDO ANTONIO RANGEL BENITEZ</t>
+  </si>
+  <si>
+    <t>JORGE ARTURO SARRIA COBO</t>
+  </si>
+  <si>
+    <t>Camargo Trujillo Pablo Andres</t>
+  </si>
+  <si>
+    <t>CRISTIAN RAMIRO JIMENEZ MOLINA</t>
+  </si>
+  <si>
+    <t>Miranda Bustos Fredy</t>
+  </si>
+  <si>
+    <t>¿cómo se calcula la incertidumbre cuando se realiza un análisis estadístico por promedio? </t>
+  </si>
+  <si>
+    <t>¿Qué es el error relativo? ¿Qué es el error absoluto? Y ¿Qué es el error porcentual? </t>
+  </si>
+  <si>
+    <t>Posteriormente, se debe registrar el valor promedio de la gravedad junto con su incertidumbre. </t>
+  </si>
+  <si>
+    <t>Calcule el valor promedio de los ángulos obtenidos. Posteriormente, se debe registrar dicho valor junto con su incertidumbre. </t>
+  </si>
+  <si>
+    <t>registrar el valor promedio de la gravedad junto con su incertidumbre.</t>
+  </si>
+  <si>
+    <t>Calcular el error porcentual para el valor obtenido de la gravedad de Marte por promedio. </t>
+  </si>
+  <si>
+    <t>Registrar el valorr promedio junto con su incertidumbre.</t>
+  </si>
+  <si>
+    <t>Realizar un análisis de los resultados obtenidos en las actividades 1 y 2. </t>
+  </si>
+  <si>
+    <t>Presentar conclusiones de las actividades realizadas. </t>
+  </si>
+  <si>
+    <t>Incluya referencias bibliográficas en el consolidado final. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +222,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2D3B45"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -259,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +356,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +676,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,16 +1147,29 @@
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D20" s="5"/>
+      <c r="C20">
+        <f>SUM(C3:C18)</f>
+        <v>339</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D3:D18)</f>
+        <v>100</v>
+      </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="F20">
+        <f>SUM(F3:F18)</f>
+        <v>2246</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="9"/>
       <c r="J20" s="6"/>
       <c r="K20" s="9"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="9"/>
+      <c r="M20">
+        <f>SUM(M3:M18)</f>
+        <v>76</v>
+      </c>
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -1173,4 +1253,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01E3B35-6EEC-474B-AB97-B6C99F60A59F}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="88.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>